--- a/Valve Major Champions.xlsx
+++ b/Valve Major Champions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>MAJOR TOURNAMENT</t>
   </si>
@@ -194,6 +194,54 @@
   </si>
   <si>
     <t>上海</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>前往荒漠迷城预瞄练习图</t>
+  </si>
+  <si>
+    <t>nuke</t>
+  </si>
+  <si>
+    <t>前往核子危机预瞄练习图</t>
+  </si>
+  <si>
+    <t>overpass</t>
+  </si>
+  <si>
+    <t>前往死亡游乐园预瞄练习图</t>
+  </si>
+  <si>
+    <t>inferno</t>
+  </si>
+  <si>
+    <t>前往炼狱小镇预瞄练习图</t>
+  </si>
+  <si>
+    <t>vertigo</t>
+  </si>
+  <si>
+    <t>前往殒命大厦预瞄练习图</t>
+  </si>
+  <si>
+    <t>anubis</t>
+  </si>
+  <si>
+    <t>前往阿努比斯预瞄练习图</t>
+  </si>
+  <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>前往远古遗迹预瞄练习图</t>
   </si>
 </sst>
 </file>
@@ -222,6 +270,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
@@ -229,31 +301,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -917,29 +965,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1254,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1272,246 +1320,246 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" customFormat="1" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,14 +1571,145 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
